--- a/biology/Botanique/Floriculture/Floriculture.xlsx
+++ b/biology/Botanique/Floriculture/Floriculture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La floriculture, ou la culture des fleurs, est une branche de l'agriculture. 
 Elle produit par le jardinage ou la culture industrielle des fleurs coupées, des plantes fleuries en pots ou jardinières, des  graines, et propagules (bulbes, tubercules, rhizomes, etc.) 
@@ -514,7 +526,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La floriculture existe probablement depuis la haute Antiquité, pour l'attrait que les fleurs ont exercé sur nos sens tant par leur beauté, leurs couleurs que leurs parfums.
 Depuis la seconde moitié du XVIIe siècle, la floriculture a fait l'objet de traités techniques spécialisés (la première publication en Italie est due à G.B. Ferrari, un jésuite de Rome qui publia en 1633 son De florum coltura) et entre le XVIIIe et le XIXe siècles d'illustres auteurs comme Joseph Decaisne et Charles Victor Naudin écrivirent sur ce sujet.
@@ -552,7 +566,9 @@
           <t>Techniques culturales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'exigence première de la floriculture commerciale est la standardisation du produit pour viser un prix rémunérateur. Ceci conduit à combiner les cultures en plein champ ou en serre, avec les cultures sur substrats artificiels, qui sont désormais la norme pour les productions en pots, l'utilisation généralisée de phytorégulateurs, de produits phytopharmaceutiques (insecticides, antiacariens, nématicides, fongicides, bactéricides...), la fertilisation par l'irrigation, la culture hydroponique, l'éclairage artificiel et les systèmes de contrôle informatisé de la température et de l'humidité.
 La multiplication des plantes peut se faire de différentes manières, par bouturage, marcottage, greffe, division de tubercules, rhizomes, stolons ou bulbes ou par semis.
@@ -584,14 +600,16 @@
           <t>Aspects environnementaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est double, avec ;
 Des aspects positifs :
 Certains estiment que la floriculture des orchidées (clonage notamment) ou d'autres espèces rares a permis de limiter le prélèvement direct dans la nature et de sauver certaines espèces.
 C'est une source importante d'emplois pour des pays tropicaux en développement.
 Des aspects négatifs ou sources de controverse
-Certaines floricultures utilisent beaucoup d'intrants chimiques et de pesticides[1], qui ont des impacts environnementaux et sur la santé des floriculteurs, en amont, et peut-être en aval. 
+Certaines floricultures utilisent beaucoup d'intrants chimiques et de pesticides, qui ont des impacts environnementaux et sur la santé des floriculteurs, en amont, et peut-être en aval. 
 Pour certaines espèces, leur diffusion peut être à l'origine 
 - de pollution génétique,
 - de perte de biodiversité, par consommation d'espaces naturels et utilisation de souches de plus en plus homogènes, souvent clonées.
